--- a/8/4/Pública Privada 2003 a 2021 - Mensual.xlsx
+++ b/8/4/Pública Privada 2003 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="233">
   <si>
     <t>Serie</t>
   </si>
@@ -710,6 +710,9 @@
   </si>
   <si>
     <t>01-05-2021</t>
+  </si>
+  <si>
+    <t>01-06-2021</t>
   </si>
 </sst>
 </file>
@@ -1067,7 +1070,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE222"/>
+  <dimension ref="A1:AE223"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -21693,13 +21696,13 @@
         <v>227</v>
       </c>
       <c r="B218">
-        <v>212018</v>
+        <v>210862</v>
       </c>
       <c r="C218">
-        <v>70724</v>
+        <v>70730</v>
       </c>
       <c r="D218">
-        <v>36659</v>
+        <v>36657</v>
       </c>
       <c r="E218">
         <v>1297</v>
@@ -21708,25 +21711,25 @@
         <v>5001</v>
       </c>
       <c r="G218">
-        <v>27766</v>
+        <v>27774</v>
       </c>
       <c r="H218">
-        <v>141294</v>
+        <v>140132</v>
       </c>
       <c r="I218">
         <v>19142</v>
       </c>
       <c r="J218">
-        <v>6963</v>
+        <v>6902</v>
       </c>
       <c r="K218">
-        <v>115189</v>
+        <v>114087</v>
       </c>
       <c r="L218">
-        <v>19997</v>
+        <v>20172</v>
       </c>
       <c r="M218">
-        <v>3014</v>
+        <v>3022</v>
       </c>
       <c r="N218">
         <v>159</v>
@@ -21738,10 +21741,10 @@
         <v>694</v>
       </c>
       <c r="Q218">
-        <v>2160</v>
+        <v>2169</v>
       </c>
       <c r="R218">
-        <v>16983</v>
+        <v>17150</v>
       </c>
       <c r="S218">
         <v>6377</v>
@@ -21750,16 +21753,16 @@
         <v>141</v>
       </c>
       <c r="U218">
-        <v>10465</v>
+        <v>10632</v>
       </c>
       <c r="V218">
-        <v>192021</v>
+        <v>190690</v>
       </c>
       <c r="W218">
-        <v>67710</v>
+        <v>67708</v>
       </c>
       <c r="X218">
-        <v>36500</v>
+        <v>36498</v>
       </c>
       <c r="Y218">
         <v>1297</v>
@@ -21771,16 +21774,16 @@
         <v>25606</v>
       </c>
       <c r="AB218">
-        <v>124311</v>
+        <v>122982</v>
       </c>
       <c r="AC218">
         <v>12765</v>
       </c>
       <c r="AD218">
-        <v>6822</v>
+        <v>6761</v>
       </c>
       <c r="AE218">
-        <v>104723</v>
+        <v>103456</v>
       </c>
     </row>
     <row r="219" spans="1:31">
@@ -21788,13 +21791,13 @@
         <v>228</v>
       </c>
       <c r="B219">
-        <v>210968</v>
+        <v>209836</v>
       </c>
       <c r="C219">
-        <v>69011</v>
+        <v>69018</v>
       </c>
       <c r="D219">
-        <v>35566</v>
+        <v>35564</v>
       </c>
       <c r="E219">
         <v>1655</v>
@@ -21803,25 +21806,25 @@
         <v>4874</v>
       </c>
       <c r="G219">
-        <v>26915</v>
+        <v>26924</v>
       </c>
       <c r="H219">
-        <v>141958</v>
+        <v>140818</v>
       </c>
       <c r="I219">
         <v>19114</v>
       </c>
       <c r="J219">
-        <v>7107</v>
+        <v>7032</v>
       </c>
       <c r="K219">
-        <v>115737</v>
+        <v>114671</v>
       </c>
       <c r="L219">
-        <v>20823</v>
+        <v>21168</v>
       </c>
       <c r="M219">
-        <v>3319</v>
+        <v>3328</v>
       </c>
       <c r="N219">
         <v>163</v>
@@ -21833,10 +21836,10 @@
         <v>583</v>
       </c>
       <c r="Q219">
-        <v>2200</v>
+        <v>2210</v>
       </c>
       <c r="R219">
-        <v>17504</v>
+        <v>17840</v>
       </c>
       <c r="S219">
         <v>6511</v>
@@ -21845,16 +21848,16 @@
         <v>152</v>
       </c>
       <c r="U219">
-        <v>10841</v>
+        <v>11176</v>
       </c>
       <c r="V219">
-        <v>190145</v>
+        <v>188668</v>
       </c>
       <c r="W219">
-        <v>65692</v>
+        <v>65690</v>
       </c>
       <c r="X219">
-        <v>35403</v>
+        <v>35402</v>
       </c>
       <c r="Y219">
         <v>1283</v>
@@ -21863,19 +21866,19 @@
         <v>4291</v>
       </c>
       <c r="AA219">
-        <v>24715</v>
+        <v>24714</v>
       </c>
       <c r="AB219">
-        <v>124453</v>
+        <v>122978</v>
       </c>
       <c r="AC219">
         <v>12603</v>
       </c>
       <c r="AD219">
-        <v>6954</v>
+        <v>6880</v>
       </c>
       <c r="AE219">
-        <v>104896</v>
+        <v>103495</v>
       </c>
     </row>
     <row r="220" spans="1:31">
@@ -21883,13 +21886,13 @@
         <v>229</v>
       </c>
       <c r="B220">
-        <v>210956</v>
+        <v>209510</v>
       </c>
       <c r="C220">
-        <v>66841</v>
+        <v>66867</v>
       </c>
       <c r="D220">
-        <v>33757</v>
+        <v>33754</v>
       </c>
       <c r="E220">
         <v>1502</v>
@@ -21898,25 +21901,25 @@
         <v>4855</v>
       </c>
       <c r="G220">
-        <v>26727</v>
+        <v>26756</v>
       </c>
       <c r="H220">
-        <v>144115</v>
+        <v>142642</v>
       </c>
       <c r="I220">
-        <v>19909</v>
+        <v>19912</v>
       </c>
       <c r="J220">
-        <v>7045</v>
+        <v>6875</v>
       </c>
       <c r="K220">
-        <v>117162</v>
+        <v>115856</v>
       </c>
       <c r="L220">
-        <v>22863</v>
+        <v>23121</v>
       </c>
       <c r="M220">
-        <v>3553</v>
+        <v>3563</v>
       </c>
       <c r="N220">
         <v>280</v>
@@ -21928,10 +21931,10 @@
         <v>762</v>
       </c>
       <c r="Q220">
-        <v>2269</v>
+        <v>2278</v>
       </c>
       <c r="R220">
-        <v>19309</v>
+        <v>19558</v>
       </c>
       <c r="S220">
         <v>7469</v>
@@ -21940,16 +21943,16 @@
         <v>155</v>
       </c>
       <c r="U220">
-        <v>11686</v>
+        <v>11935</v>
       </c>
       <c r="V220">
-        <v>188093</v>
+        <v>186389</v>
       </c>
       <c r="W220">
-        <v>63288</v>
+        <v>63305</v>
       </c>
       <c r="X220">
-        <v>33476</v>
+        <v>33474</v>
       </c>
       <c r="Y220">
         <v>1260</v>
@@ -21958,19 +21961,19 @@
         <v>4093</v>
       </c>
       <c r="AA220">
-        <v>24458</v>
+        <v>24477</v>
       </c>
       <c r="AB220">
-        <v>124805</v>
+        <v>123084</v>
       </c>
       <c r="AC220">
-        <v>12440</v>
+        <v>12443</v>
       </c>
       <c r="AD220">
-        <v>6890</v>
+        <v>6720</v>
       </c>
       <c r="AE220">
-        <v>105476</v>
+        <v>103921</v>
       </c>
     </row>
     <row r="221" spans="1:31">
@@ -21978,13 +21981,13 @@
         <v>230</v>
       </c>
       <c r="B221">
-        <v>214849</v>
+        <v>213397</v>
       </c>
       <c r="C221">
-        <v>68850</v>
+        <v>68873</v>
       </c>
       <c r="D221">
-        <v>35863</v>
+        <v>35862</v>
       </c>
       <c r="E221">
         <v>1275</v>
@@ -21993,25 +21996,25 @@
         <v>4835</v>
       </c>
       <c r="G221">
-        <v>26877</v>
+        <v>26901</v>
       </c>
       <c r="H221">
-        <v>145999</v>
+        <v>144524</v>
       </c>
       <c r="I221">
-        <v>19756</v>
+        <v>19759</v>
       </c>
       <c r="J221">
-        <v>7119</v>
+        <v>6977</v>
       </c>
       <c r="K221">
-        <v>119124</v>
+        <v>117788</v>
       </c>
       <c r="L221">
-        <v>22284</v>
+        <v>22599</v>
       </c>
       <c r="M221">
-        <v>3263</v>
+        <v>3267</v>
       </c>
       <c r="N221">
         <v>213</v>
@@ -22023,10 +22026,10 @@
         <v>782</v>
       </c>
       <c r="Q221">
-        <v>2268</v>
+        <v>2272</v>
       </c>
       <c r="R221">
-        <v>19021</v>
+        <v>19332</v>
       </c>
       <c r="S221">
         <v>7281</v>
@@ -22035,13 +22038,13 @@
         <v>155</v>
       </c>
       <c r="U221">
-        <v>11585</v>
+        <v>11896</v>
       </c>
       <c r="V221">
-        <v>192566</v>
+        <v>190797</v>
       </c>
       <c r="W221">
-        <v>65587</v>
+        <v>65606</v>
       </c>
       <c r="X221">
         <v>35650</v>
@@ -22053,19 +22056,19 @@
         <v>4052</v>
       </c>
       <c r="AA221">
-        <v>24609</v>
+        <v>24629</v>
       </c>
       <c r="AB221">
-        <v>126979</v>
+        <v>125192</v>
       </c>
       <c r="AC221">
-        <v>12475</v>
+        <v>12478</v>
       </c>
       <c r="AD221">
-        <v>6964</v>
+        <v>6822</v>
       </c>
       <c r="AE221">
-        <v>107539</v>
+        <v>105891</v>
       </c>
     </row>
     <row r="222" spans="1:31">
@@ -22073,13 +22076,13 @@
         <v>231</v>
       </c>
       <c r="B222">
-        <v>216184</v>
+        <v>214870</v>
       </c>
       <c r="C222">
-        <v>69915</v>
+        <v>69923</v>
       </c>
       <c r="D222">
-        <v>37595</v>
+        <v>37594</v>
       </c>
       <c r="E222">
         <v>1290</v>
@@ -22088,25 +22091,25 @@
         <v>4716</v>
       </c>
       <c r="G222">
-        <v>26314</v>
+        <v>26323</v>
       </c>
       <c r="H222">
-        <v>146269</v>
+        <v>144946</v>
       </c>
       <c r="I222">
         <v>20422</v>
       </c>
       <c r="J222">
-        <v>6988</v>
+        <v>6928</v>
       </c>
       <c r="K222">
-        <v>118859</v>
+        <v>117596</v>
       </c>
       <c r="L222">
-        <v>23474</v>
+        <v>23465</v>
       </c>
       <c r="M222">
-        <v>3120</v>
+        <v>3129</v>
       </c>
       <c r="N222">
         <v>143</v>
@@ -22118,10 +22121,10 @@
         <v>666</v>
       </c>
       <c r="Q222">
-        <v>2310</v>
+        <v>2320</v>
       </c>
       <c r="R222">
-        <v>20354</v>
+        <v>20335</v>
       </c>
       <c r="S222">
         <v>8386</v>
@@ -22130,13 +22133,13 @@
         <v>160</v>
       </c>
       <c r="U222">
-        <v>11808</v>
+        <v>11789</v>
       </c>
       <c r="V222">
-        <v>192710</v>
+        <v>191405</v>
       </c>
       <c r="W222">
-        <v>66795</v>
+        <v>66794</v>
       </c>
       <c r="X222">
         <v>37451</v>
@@ -22151,16 +22154,111 @@
         <v>24003</v>
       </c>
       <c r="AB222">
-        <v>125915</v>
+        <v>124611</v>
       </c>
       <c r="AC222">
         <v>12036</v>
       </c>
       <c r="AD222">
-        <v>6828</v>
+        <v>6768</v>
       </c>
       <c r="AE222">
-        <v>107051</v>
+        <v>105807</v>
+      </c>
+    </row>
+    <row r="223" spans="1:31">
+      <c r="A223" t="s">
+        <v>232</v>
+      </c>
+      <c r="B223">
+        <v>213283</v>
+      </c>
+      <c r="C223">
+        <v>70287</v>
+      </c>
+      <c r="D223">
+        <v>37860</v>
+      </c>
+      <c r="E223">
+        <v>1265</v>
+      </c>
+      <c r="F223">
+        <v>4616</v>
+      </c>
+      <c r="G223">
+        <v>26546</v>
+      </c>
+      <c r="H223">
+        <v>142996</v>
+      </c>
+      <c r="I223">
+        <v>19660</v>
+      </c>
+      <c r="J223">
+        <v>6850</v>
+      </c>
+      <c r="K223">
+        <v>116486</v>
+      </c>
+      <c r="L223">
+        <v>22318</v>
+      </c>
+      <c r="M223">
+        <v>2814</v>
+      </c>
+      <c r="N223">
+        <v>142</v>
+      </c>
+      <c r="O223">
+        <v>0</v>
+      </c>
+      <c r="P223">
+        <v>603</v>
+      </c>
+      <c r="Q223">
+        <v>2069</v>
+      </c>
+      <c r="R223">
+        <v>19504</v>
+      </c>
+      <c r="S223">
+        <v>7843</v>
+      </c>
+      <c r="T223">
+        <v>178</v>
+      </c>
+      <c r="U223">
+        <v>11482</v>
+      </c>
+      <c r="V223">
+        <v>190965</v>
+      </c>
+      <c r="W223">
+        <v>67473</v>
+      </c>
+      <c r="X223">
+        <v>37718</v>
+      </c>
+      <c r="Y223">
+        <v>1265</v>
+      </c>
+      <c r="Z223">
+        <v>4013</v>
+      </c>
+      <c r="AA223">
+        <v>24476</v>
+      </c>
+      <c r="AB223">
+        <v>123492</v>
+      </c>
+      <c r="AC223">
+        <v>11817</v>
+      </c>
+      <c r="AD223">
+        <v>6672</v>
+      </c>
+      <c r="AE223">
+        <v>105003</v>
       </c>
     </row>
   </sheetData>

--- a/8/4/Pública Privada 2003 a 2021 - Mensual.xlsx
+++ b/8/4/Pública Privada 2003 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="234">
   <si>
     <t>Serie</t>
   </si>
@@ -713,6 +713,9 @@
   </si>
   <si>
     <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -1070,7 +1073,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE223"/>
+  <dimension ref="A1:AE224"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -22261,6 +22264,101 @@
         <v>105003</v>
       </c>
     </row>
+    <row r="224" spans="1:31">
+      <c r="A224" t="s">
+        <v>233</v>
+      </c>
+      <c r="B224">
+        <v>224053</v>
+      </c>
+      <c r="C224">
+        <v>77698</v>
+      </c>
+      <c r="D224">
+        <v>44869</v>
+      </c>
+      <c r="E224">
+        <v>1267</v>
+      </c>
+      <c r="F224">
+        <v>4711</v>
+      </c>
+      <c r="G224">
+        <v>26852</v>
+      </c>
+      <c r="H224">
+        <v>146355</v>
+      </c>
+      <c r="I224">
+        <v>21059</v>
+      </c>
+      <c r="J224">
+        <v>6836</v>
+      </c>
+      <c r="K224">
+        <v>118460</v>
+      </c>
+      <c r="L224">
+        <v>24560</v>
+      </c>
+      <c r="M224">
+        <v>2755</v>
+      </c>
+      <c r="N224">
+        <v>49</v>
+      </c>
+      <c r="O224">
+        <v>0</v>
+      </c>
+      <c r="P224">
+        <v>585</v>
+      </c>
+      <c r="Q224">
+        <v>2121</v>
+      </c>
+      <c r="R224">
+        <v>21804</v>
+      </c>
+      <c r="S224">
+        <v>8596</v>
+      </c>
+      <c r="T224">
+        <v>171</v>
+      </c>
+      <c r="U224">
+        <v>13038</v>
+      </c>
+      <c r="V224">
+        <v>199493</v>
+      </c>
+      <c r="W224">
+        <v>74943</v>
+      </c>
+      <c r="X224">
+        <v>44820</v>
+      </c>
+      <c r="Y224">
+        <v>1267</v>
+      </c>
+      <c r="Z224">
+        <v>4126</v>
+      </c>
+      <c r="AA224">
+        <v>24730</v>
+      </c>
+      <c r="AB224">
+        <v>124550</v>
+      </c>
+      <c r="AC224">
+        <v>12463</v>
+      </c>
+      <c r="AD224">
+        <v>6666</v>
+      </c>
+      <c r="AE224">
+        <v>105421</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/8/4/Pública Privada 2003 a 2021 - Mensual.xlsx
+++ b/8/4/Pública Privada 2003 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="235">
   <si>
     <t>Serie</t>
   </si>
@@ -716,6 +716,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -1073,7 +1076,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE224"/>
+  <dimension ref="A1:AE225"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -22359,6 +22362,101 @@
         <v>105421</v>
       </c>
     </row>
+    <row r="225" spans="1:31">
+      <c r="A225" t="s">
+        <v>234</v>
+      </c>
+      <c r="B225">
+        <v>229192</v>
+      </c>
+      <c r="C225">
+        <v>80522</v>
+      </c>
+      <c r="D225">
+        <v>45157</v>
+      </c>
+      <c r="E225">
+        <v>3643</v>
+      </c>
+      <c r="F225">
+        <v>4696</v>
+      </c>
+      <c r="G225">
+        <v>27025</v>
+      </c>
+      <c r="H225">
+        <v>148670</v>
+      </c>
+      <c r="I225">
+        <v>21285</v>
+      </c>
+      <c r="J225">
+        <v>6865</v>
+      </c>
+      <c r="K225">
+        <v>120521</v>
+      </c>
+      <c r="L225">
+        <v>25220</v>
+      </c>
+      <c r="M225">
+        <v>2949</v>
+      </c>
+      <c r="N225">
+        <v>48</v>
+      </c>
+      <c r="O225">
+        <v>0</v>
+      </c>
+      <c r="P225">
+        <v>718</v>
+      </c>
+      <c r="Q225">
+        <v>2184</v>
+      </c>
+      <c r="R225">
+        <v>22271</v>
+      </c>
+      <c r="S225">
+        <v>8649</v>
+      </c>
+      <c r="T225">
+        <v>199</v>
+      </c>
+      <c r="U225">
+        <v>13423</v>
+      </c>
+      <c r="V225">
+        <v>203971</v>
+      </c>
+      <c r="W225">
+        <v>77572</v>
+      </c>
+      <c r="X225">
+        <v>45110</v>
+      </c>
+      <c r="Y225">
+        <v>3643</v>
+      </c>
+      <c r="Z225">
+        <v>3978</v>
+      </c>
+      <c r="AA225">
+        <v>24841</v>
+      </c>
+      <c r="AB225">
+        <v>126399</v>
+      </c>
+      <c r="AC225">
+        <v>12636</v>
+      </c>
+      <c r="AD225">
+        <v>6665</v>
+      </c>
+      <c r="AE225">
+        <v>107098</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/8/4/Pública Privada 2003 a 2021 - Mensual.xlsx
+++ b/8/4/Pública Privada 2003 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="236">
   <si>
     <t>Serie</t>
   </si>
@@ -719,6 +719,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -1076,7 +1079,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE225"/>
+  <dimension ref="A1:AE226"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -22457,6 +22460,101 @@
         <v>107098</v>
       </c>
     </row>
+    <row r="226" spans="1:31">
+      <c r="A226" t="s">
+        <v>235</v>
+      </c>
+      <c r="B226">
+        <v>233155</v>
+      </c>
+      <c r="C226">
+        <v>80484</v>
+      </c>
+      <c r="D226">
+        <v>44254</v>
+      </c>
+      <c r="E226">
+        <v>3604</v>
+      </c>
+      <c r="F226">
+        <v>4546</v>
+      </c>
+      <c r="G226">
+        <v>28080</v>
+      </c>
+      <c r="H226">
+        <v>152671</v>
+      </c>
+      <c r="I226">
+        <v>22787</v>
+      </c>
+      <c r="J226">
+        <v>6709</v>
+      </c>
+      <c r="K226">
+        <v>123175</v>
+      </c>
+      <c r="L226">
+        <v>25402</v>
+      </c>
+      <c r="M226">
+        <v>2792</v>
+      </c>
+      <c r="N226">
+        <v>0</v>
+      </c>
+      <c r="O226">
+        <v>0</v>
+      </c>
+      <c r="P226">
+        <v>604</v>
+      </c>
+      <c r="Q226">
+        <v>2188</v>
+      </c>
+      <c r="R226">
+        <v>22610</v>
+      </c>
+      <c r="S226">
+        <v>9416</v>
+      </c>
+      <c r="T226">
+        <v>198</v>
+      </c>
+      <c r="U226">
+        <v>12996</v>
+      </c>
+      <c r="V226">
+        <v>207752</v>
+      </c>
+      <c r="W226">
+        <v>77691</v>
+      </c>
+      <c r="X226">
+        <v>44254</v>
+      </c>
+      <c r="Y226">
+        <v>3604</v>
+      </c>
+      <c r="Z226">
+        <v>3942</v>
+      </c>
+      <c r="AA226">
+        <v>25891</v>
+      </c>
+      <c r="AB226">
+        <v>130061</v>
+      </c>
+      <c r="AC226">
+        <v>13371</v>
+      </c>
+      <c r="AD226">
+        <v>6510</v>
+      </c>
+      <c r="AE226">
+        <v>110179</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
